--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 19003-2025</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45764</v>
+        <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 22369-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1035,14 +1035,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22369-2024</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45446</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1092,14 +1092,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 19003-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44573</v>
+        <v>45764</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>45287</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45614</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45764.53686342593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45960.65806712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45764</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45287</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45614</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45764.53686342593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45960.65806712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45764</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45287</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45614</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 53519-2023</t>
+          <t>A 50825-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45230</v>
+        <v>45946.54048611111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -809,41 +809,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 50825-2025</t>
+          <t>A 53519-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45946.54048611111</v>
+        <v>45230</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -894,41 +894,41 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 19003-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44573</v>
+        <v>45764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 22369-2024</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45446</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1035,14 +1035,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 22369-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45446</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1092,14 +1092,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 19003-2025</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45764</v>
+        <v>44573</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>45287</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45614</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 50825-2025</t>
+          <t>A 53519-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45946.54048611111</v>
+        <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -809,41 +809,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 53519-2023</t>
+          <t>A 50825-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45230</v>
+        <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -894,41 +894,41 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 19003-2025</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45764</v>
+        <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 65018-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45287</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>45446</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44573</v>
+        <v>45614</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1206,14 +1206,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 65018-2023</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45287</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1263,14 +1263,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45614</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,14 +1320,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 19003-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45614</v>
+        <v>45764</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 19003-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44573</v>
+        <v>45764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 65018-2023</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45287</v>
+        <v>44573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>45446</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45614</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 65018-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45614</v>
+        <v>45287</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1206,14 +1206,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45614</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1263,14 +1263,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,14 +1320,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 19003-2025</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45764</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 19003-2025</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45764</v>
+        <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44573</v>
+        <v>45614</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1035,14 +1035,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22369-2024</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45446</v>
+        <v>45614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1092,14 +1092,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 22369-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45446</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 65018-2023</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45287</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1206,14 +1206,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45614</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1263,14 +1263,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 19003-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45614</v>
+        <v>45764</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,14 +1320,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 65018-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 53519-2023</t>
+          <t>A 50825-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45230</v>
+        <v>45946.54048611111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -809,41 +809,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 50825-2025</t>
+          <t>A 53519-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45946.54048611111</v>
+        <v>45230</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45614</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45446</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1206,14 +1206,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>45764</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45230</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45614</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45446</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45960.65806712963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45764.53686342593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45764</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45230</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 65018-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44573</v>
+        <v>45287</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>45614</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22369-2024</t>
+          <t>A 53750-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45446</v>
+        <v>45960.65806712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1149,14 +1149,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53750-2025</t>
+          <t>A 19003-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45960.65806712963</v>
+        <v>45764</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1206,14 +1206,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 22369-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45446</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1263,14 +1263,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 19003-2025</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45764</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,14 +1320,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 65018-2023</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45287</v>
+        <v>44573</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 50825-2025</t>
+          <t>A 53519-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45946.54048611111</v>
+        <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -809,41 +809,41 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 53519-2023</t>
+          <t>A 50825-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45230</v>
+        <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -894,41 +894,41 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 53519-2023 artfynd.xlsx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/artfynd/A 50825-2025 artfynd.xlsx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 53519-2023 karta.png", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/kartor/A 50825-2025 karta.png", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 53519-2023 FSC-klagomål.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomål/A 50825-2025 FSC-klagomål.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 53519-2023 FSC-klagomål mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/klagomålsmail/A 50825-2025 FSC-klagomål mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 53519-2023 tillsynsbegäran.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsyn/A 50825-2025 tillsynsbegäran.docx", "A 50825-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 53519-2023 tillsynsbegäran mail.docx", "A 53519-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1261/tillsynsmail/A 50825-2025 tillsynsbegäran mail.docx", "A 50825-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 65018-2023</t>
+          <t>A 1468-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45287</v>
+        <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 22369-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45614</v>
+        <v>45446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1035,14 +1035,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 53361-2024</t>
+          <t>A 18968-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45614</v>
+        <v>45764.53686342593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>45960.65806712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45764</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 22369-2024</t>
+          <t>A 65018-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45446</v>
+        <v>45287</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1263,14 +1263,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 18968-2025</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45764.53686342593</v>
+        <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,14 +1320,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 1468-2022</t>
+          <t>A 53361-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44573</v>
+        <v>45614</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt KÄVLINGE.xlsx
+++ b/Översikt KÄVLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45373</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45946.54048611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44573</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45764.53686342593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45960.65806712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45764</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45287</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>45614</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
